--- a/Unity/Assets/Config/Excel/EquipConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3435901-609F-4CBB-B0FB-A3FA159E2182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB6EE5-7FBD-4FF3-80DB-7E9BC5F2A678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5494,10 +5494,10 @@
   <dimension ref="C1:HP494"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8:C23"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -6089,7 +6089,7 @@
         <v>999999</v>
       </c>
       <c r="M7" s="21">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="N7" s="21">
         <v>9999</v>

--- a/Unity/Assets/Config/Excel/EquipConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FF6A08-9DE8-447F-B03E-E0F375C3E71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD51D60-49FD-4E1B-BE71-B8647E93FEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5491,10 +5491,10 @@
   <dimension ref="C1:HP494"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="L6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
